--- a/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Payroll_history.xlsx
+++ b/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Payroll_history.xlsx
@@ -19,6 +19,60 @@
     <t>department</t>
   </si>
   <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
     <t>D7000</t>
   </si>
   <si>
@@ -28,6 +82,66 @@
     <t>D9008</t>
   </si>
   <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D9000</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
     <t>D1020</t>
   </si>
   <si>
@@ -41,120 +155,6 @@
   </si>
   <si>
     <t>D9007</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D9000</t>
-  </si>
-  <si>
-    <t>D9009</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D9005</t>
-  </si>
-  <si>
-    <t>D9012</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6781</t>
   </si>
   <si>
     <t>total</t>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3928.60</v>
+        <v>132609.19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>36153.81</v>
+        <v>59455.65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>217.86</v>
+        <v>13554.90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>60294.73</v>
+        <v>17921.43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>13757.40</v>
+        <v>659.24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>33405.82</v>
+        <v>7781.00</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4328.56</v>
+        <v>31135.95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -599,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>5262.03</v>
+        <v>55054.28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>42171.69</v>
+        <v>43640.91</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>29120.57</v>
+        <v>17157.60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>9803.26</v>
+        <v>32292.51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>13689.57</v>
+        <v>14241.14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>11159.92</v>
+        <v>24464.68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>135106.24</v>
+        <v>91731.23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>6908.15</v>
+        <v>51666.10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>43758.88</v>
+        <v>15505.27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -671,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>35973.71</v>
+        <v>13242.86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -679,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>220.41</v>
+        <v>31923.86</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -687,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>186.27</v>
+        <v>3928.60</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -695,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>132609.19</v>
+        <v>36153.81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -703,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>59455.65</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -711,7 +711,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>13554.90</v>
+        <v>135106.24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -719,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>17921.43</v>
+        <v>6908.15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>659.24</v>
+        <v>43758.88</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -735,7 +735,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>7781.00</v>
+        <v>35973.71</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>91731.23</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -751,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>51666.10</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>15505.27</v>
+        <v>42171.69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>13242.86</v>
+        <v>29120.57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -775,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>31923.86</v>
+        <v>9803.26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -783,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>31135.95</v>
+        <v>13689.57</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -791,7 +791,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>55054.28</v>
+        <v>11159.92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -799,7 +799,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>43640.91</v>
+        <v>108085.81</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -807,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>17157.60</v>
+        <v>14775.43</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>32292.51</v>
+        <v>7519.64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -823,7 +823,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>14241.14</v>
+        <v>44791.36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -831,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>24464.68</v>
+        <v>154.67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -839,7 +839,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>108085.81</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -847,7 +847,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>14775.43</v>
+        <v>25471.11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -855,7 +855,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>7519.64</v>
+        <v>24966.29</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -863,7 +863,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>44791.36</v>
+        <v>2938.80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -871,7 +871,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>154.67</v>
+        <v>60294.73</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -879,7 +879,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>216.21</v>
+        <v>13757.40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -887,7 +887,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>25471.11</v>
+        <v>33405.82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -895,7 +895,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>24966.29</v>
+        <v>4328.56</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -903,7 +903,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>2938.80</v>
+        <v>5262.03</v>
       </c>
     </row>
   </sheetData>
